--- a/results/experiment1.xlsx
+++ b/results/experiment1.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>ACC</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
@@ -35,13 +32,16 @@
   <si>
     <t>FinBERT</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,13 +416,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -431,21 +431,21 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>82.5</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>83.3</v>
